--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/17/word_level_predictions_17.xlsx
@@ -3570,106 +3570,106 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Stuck</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="D62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3749,341 +3749,341 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>4</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>4</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193" s="2" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K193" t="b">
-        <v>1</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194" s="2" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" t="b">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K195" t="b">
-        <v>1</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G196" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" t="b">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K196" t="b">
-        <v>1</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G248" s="2" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,735 +13809,735 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E258" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
+      <c r="F258" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D259" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" t="b">
-        <v>1</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K259" t="b">
-        <v>1</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="E259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" t="n">
+      <c r="D260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="E260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" t="n">
+      <c r="D261" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="E261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="E265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="E267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="E268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="E269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="E270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/17/word_level_predictions_17.xlsx
@@ -3570,106 +3570,106 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>4</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>0</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>4</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Stuck</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3773,317 +3773,317 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" t="n">
         <v>12</v>
       </c>
-      <c r="B193" s="2" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" t="n">
         <v>4</v>
       </c>
-      <c r="E193" s="2" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" s="2" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" t="n">
         <v>12</v>
       </c>
-      <c r="B194" s="2" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" s="2" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" t="n">
         <v>5</v>
       </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" t="n">
         <v>12</v>
       </c>
-      <c r="B195" s="2" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" s="2" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" s="2" t="n">
+      <c r="D195" t="n">
         <v>6</v>
       </c>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" s="2" t="inlineStr">
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K195" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" t="n">
         <v>12</v>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" s="2" t="n">
+      <c r="D196" t="n">
         <v>7</v>
       </c>
-      <c r="E196" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L196" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>12</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>8</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>12</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>9</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G248" s="2" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,735 +13809,735 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" t="n">
         <v>16</v>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" t="n">
         <v>14</v>
       </c>
-      <c r="E258" s="2" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" s="2" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" t="n">
         <v>16</v>
       </c>
-      <c r="B259" s="2" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" s="2" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" t="n">
         <v>15</v>
       </c>
-      <c r="E259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="2" t="inlineStr">
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K259" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>16</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
+      <c r="D260" t="n">
         <v>16</v>
       </c>
-      <c r="E260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>16</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
+      <c r="D261" t="n">
         <v>17</v>
       </c>
-      <c r="E261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>16</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>18</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>16</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>19</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>16</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>20</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>16</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>21</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>16</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>22</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>16</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>23</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>16</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>24</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>16</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>25</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>16</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>26</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>16</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>27</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
